--- a/FrontWebApp/src/assets/archivos/FormatoPreguntasRetoEncuestaSatisfaccion.xlsx
+++ b/FrontWebApp/src/assets/archivos/FormatoPreguntasRetoEncuestaSatisfaccion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\OneDrive - Digimentore SA\Escritorio\GitHub\Trivia\gameTrivia\src\assets\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\OneDrive - Digimentore SA\Escritorio\GitHub\Evolution\FrontWebApp\src\assets\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EA58B8-BA5E-433E-AC6D-ACCE89C7A377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A6809C-1E94-4295-8735-92302BF83B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2475" windowWidth="23460" windowHeight="11385" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>Alejandro</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B204AEC4-74C0-4250-A783-F6128290DACB}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{2250004A-F693-40E9-9EFC-A36D5C72F011}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,63 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Poner la opción correcta, Ejemplo: A
+          <t xml:space="preserve">Valor de la opción A, ingrese un numero del 1 al 5 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{E183BA3C-5DEB-4A9E-885F-6DEC2B6B7158}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valor de la opción B, ingrese un numero del 1 al 5 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{CE2B7121-7C16-409A-8B69-F951CDEAE2D2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valor de la opción C, ingrese un numero del 1 al 5 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{1E7216E2-DB57-4910-8A77-F1B25442950D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valor de la opción D, ingrese un numero del 1 al 5 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{755BFDE6-567E-4C2F-A76B-D2CA2D3538B1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Valor de la opción E, ingrese un numero del 1 al 5 
 </t>
         </r>
       </text>
@@ -60,39 +116,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>PREGUNTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPCION A </t>
-  </si>
-  <si>
-    <t>OPCION B</t>
-  </si>
-  <si>
-    <t>OPCION C</t>
-  </si>
-  <si>
-    <t>OPCION D</t>
-  </si>
-  <si>
-    <t>CORRECTA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>¿Ejemplo?</t>
   </si>
   <si>
-    <t>Ejemplo Opcion 1</t>
-  </si>
-  <si>
-    <t>Ejemplo Opcion 2</t>
-  </si>
-  <si>
-    <t>Ejemplo Opcion 3</t>
-  </si>
-  <si>
-    <t>A</t>
+    <t>PREGUNTA*</t>
+  </si>
+  <si>
+    <t>OPCION A*</t>
+  </si>
+  <si>
+    <t>OPCION B*</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>OPCION C*</t>
+  </si>
+  <si>
+    <t>OPCION D*</t>
+  </si>
+  <si>
+    <t>OPCION E*</t>
+  </si>
+  <si>
+    <t>ESCALA OP A*</t>
+  </si>
+  <si>
+    <t>ESCALA OP B*</t>
+  </si>
+  <si>
+    <t>ESCALA OP C*</t>
+  </si>
+  <si>
+    <t>ESCALA OP D*</t>
+  </si>
+  <si>
+    <t>ESCALA OP E*</t>
+  </si>
+  <si>
+    <t>Totalmente en desacuerdo</t>
+  </si>
+  <si>
+    <t>En desacuerdo</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>De acuerdo</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
   </si>
 </sst>
 </file>
@@ -166,9 +255,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +295,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +401,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,61 +551,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F0AF0-17E7-49D1-BBAE-C9A38D86A7D5}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/FrontWebApp/src/assets/archivos/FormatoPreguntasRetoEncuestaSatisfaccion.xlsx
+++ b/FrontWebApp/src/assets/archivos/FormatoPreguntasRetoEncuestaSatisfaccion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\OneDrive - Digimentore SA\Escritorio\GitHub\Evolution\FrontWebApp\src\assets\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A6809C-1E94-4295-8735-92302BF83B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F82D1E-F13A-4342-9870-7CA4554DADAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
+    <workbookView xWindow="1170" yWindow="1530" windowWidth="23940" windowHeight="12630" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -124,12 +124,6 @@
     <t>PREGUNTA*</t>
   </si>
   <si>
-    <t>OPCION A*</t>
-  </si>
-  <si>
-    <t>OPCION B*</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -145,15 +139,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>OPCION C*</t>
-  </si>
-  <si>
-    <t>OPCION D*</t>
-  </si>
-  <si>
-    <t>OPCION E*</t>
-  </si>
-  <si>
     <t>ESCALA OP A*</t>
   </si>
   <si>
@@ -182,6 +167,21 @@
   </si>
   <si>
     <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>OPCIÓN A*</t>
+  </si>
+  <si>
+    <t>OPCIÓN B*</t>
+  </si>
+  <si>
+    <t>OPCIÓN C*</t>
+  </si>
+  <si>
+    <t>OPCIÓN D*</t>
+  </si>
+  <si>
+    <t>OPCIÓN E*</t>
   </si>
 </sst>
 </file>
@@ -229,12 +229,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4F0AF0-17E7-49D1-BBAE-C9A38D86A7D5}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -573,34 +576,34 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -608,35 +611,38 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
